--- a/Assignment LOG.xlsx
+++ b/Assignment LOG.xlsx
@@ -1947,7 +1947,9 @@
       <c r="C34" s="29">
         <v>2.0</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="30">
+        <v>46018.0</v>
+      </c>
       <c r="E34" s="29" t="b">
         <v>1</v>
       </c>
